--- a/pred_ohlcv/54_21/2020-01-26 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 XLM ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-169461.4127432</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-172943.3083432</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-172928.2785432</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-172913.2785432</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-172920.7785432</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-196792.6802432</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-207530.2988432</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-114176.7573431999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-115491.7573431999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-125034.6548431999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-170753.3025431999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-77868.51614319996</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-78300.34884319996</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-82564.88534319996</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-91083.64291988996</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-91732.41821988995</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-18080.76010877996</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-18557.35970877996</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-29851.60580877996</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-52351.60580877996</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-52878.66510877996</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-53997.59570877996</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-413099.0287904599</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-413099.0287904599</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-413112.1335904599</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-413119.7298904599</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-413709.6524904598</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-414869.3210904598</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-415672.2091904598</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-415230.1931904598</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-305192.3078904598</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-239821.9662904598</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-238414.9662904598</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-241048.9662904598</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-235035.9579904598</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-240692.2760904598</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-240312.5792904598</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-243410.9465904598</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-210328.1437044298</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-288819.9227555598</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-288782.3204555598</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-289227.8769555598</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-291764.7149555598</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-293689.7260555598</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-293681.7260555598</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-302708.9967555598</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-310925.1461555598</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-310925.1461555598</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-303980.8009555598</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-303980.8009555598</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-289348.2105555598</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-294348.2105555598</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 XLM ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-194818.9036432</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-169461.4127432</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-172950.8083432</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-172943.3083432</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-172928.2785432</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-172913.2785432</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-172920.7785432</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-196792.6802432</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-207530.2988432</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-114176.7573431999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-115491.7573431999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-125034.6548431999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-77868.51614319996</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-78300.34884319996</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-82564.88534319996</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-413099.0287904599</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-413099.0287904599</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-413112.1335904599</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-413119.7298904599</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-413709.6524904598</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-415442.9861904599</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-413866.0961904599</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-414869.3210904598</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-415672.2091904598</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-415230.1931904598</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-305192.3078904598</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-239821.9662904598</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-238414.9662904598</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-241048.9662904598</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-235035.9579904598</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-240692.2760904598</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-240312.5792904598</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-243410.9465904598</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-210328.1437044298</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-288819.9227555598</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-288782.3204555598</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-289227.8769555598</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-291764.7149555598</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-293689.7260555598</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-293681.7260555598</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-302708.9967555598</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-310925.1461555598</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-310925.1461555598</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-336449.7377555599</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-316188.6430555598</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-313569.1854555598</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-315448.2999555598</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-308083.3946988398</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
